--- a/SCBAA/2016/Region 6.xlsx
+++ b/SCBAA/2016/Region 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8533CEB-C4B9-4C87-8F64-683F73450C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9811E-A99F-459D-A1B6-C4F92B8540FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="1380" windowWidth="14625" windowHeight="12540" xr2:uid="{DEB5C0A6-0188-4202-8E51-A62861C4E379}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{DEB5C0A6-0188-4202-8E51-A62861C4E379}"/>
   </bookViews>
   <sheets>
     <sheet name="Iloilo" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -236,7 +243,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -444,8 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
@@ -488,23 +495,11 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,6 +538,18 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -864,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A82EB5-B42F-4993-80F0-2458F5393211}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,265 +885,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <v>686277233.46000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <v>619269600.92999995</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12">
         <f>SUM(E11:E13)</f>
         <v>1305546834.3899999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="28">
         <v>62762876.210000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="38">
         <v>61369329.539999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="39">
         <v>783933783.20000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="12">
         <f>SUM(E16:E18)</f>
         <v>908065988.95000005</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="32">
+      <c r="D21" s="17"/>
+      <c r="E21" s="28">
         <v>770564955</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="28">
         <v>11218052.140000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5">
@@ -1144,21 +1151,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="14">
@@ -1166,19 +1173,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="9">
@@ -1186,10 +1193,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="9">
@@ -1197,41 +1204,41 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="9">
@@ -1239,10 +1246,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="4">
@@ -1250,193 +1257,193 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="12">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>2995395830.48</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="15.75">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="28">
         <v>312980745.57999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="28">
         <v>556791666.39999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="28">
         <v>9199650.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="28">
         <v>12493533.619999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="28">
         <v>101360169.09</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="28">
         <v>3119295.22</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="28">
         <v>115826556.68000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="28">
         <v>30979727.48</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="9">
@@ -1444,10 +1451,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="9">
@@ -1455,10 +1462,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="6">
@@ -1466,30 +1473,30 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="9">
@@ -1497,10 +1504,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="9">
@@ -1508,114 +1515,114 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="28">
         <v>35226739.090000004</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="28">
         <v>31312973.350000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="32">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="28">
         <v>131637850.79000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="28">
         <v>66712113.5</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="32">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="28">
         <v>50440626.850000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="9">
@@ -1623,50 +1630,50 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="32">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="28">
         <v>46092975.219999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="4">
@@ -1674,81 +1681,81 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="33" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="28">
         <v>20570326.370000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="33" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="28">
         <v>18159203.059999999</v>
       </c>
-      <c r="F81" s="34"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="33" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="28">
         <v>24313232.280000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="8">
@@ -1756,10 +1763,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="8">
@@ -1767,157 +1774,157 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="28">
         <v>17580882.41</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="28">
         <v>70915673.049999997</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="28">
         <v>122751909.75</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="7">
         <f>SUM(E41:E92)</f>
         <v>1778465850.2899997</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="6"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="32">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="28">
         <v>19657469.25</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="32">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="28">
         <v>104769221.05</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="4">
@@ -1925,17 +1932,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="4">
@@ -1943,81 +1950,81 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="32">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="28">
         <v>75618111.569999993</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="32">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="28">
         <v>29400</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="32">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="28">
         <v>9795409.9199999999</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="43">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="39">
         <v>2979963.5</v>
       </c>
-      <c r="F110" s="36"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
@@ -2026,12 +2033,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1">
-      <c r="A112" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="A112" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>1991315425.5799997</v>
@@ -2054,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFFA370-B7E5-4EE8-8F79-0BFE3D8C8F7A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,266 +2075,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28">
-        <f>16964442.88+16585549.05</f>
+      <c r="E11" s="24">
         <v>33549991.93</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>20034262.27</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <v>1690640.66</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12">
-        <f>SUM(E11:E13)</f>
         <v>55274894.859999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <v>6058772.1200000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>33626762.560000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>4656580.46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="12">
-        <f>SUM(E16:E18)</f>
         <v>44342115.140000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="28">
+      <c r="D21" s="17"/>
+      <c r="E21" s="24">
         <v>430245927.19999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5">
@@ -2335,21 +2339,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="14">
@@ -2357,19 +2361,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="9">
@@ -2377,52 +2381,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <v>21998704.43</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="9">
@@ -2430,10 +2434,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="4">
@@ -2441,193 +2445,192 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="12">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>551861641.63</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="15.75">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="24">
         <v>132068838.69</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="24">
         <v>101408824.7</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="28">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24">
         <v>4959387.4800000004</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="24">
         <v>3451518.66</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="24">
         <v>2453575.54</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="28">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="24">
         <v>1153287</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="24">
         <v>28840258.370000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="24">
         <v>2159682.65</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="9">
@@ -2635,10 +2638,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="9">
@@ -2646,10 +2649,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="6">
@@ -2657,30 +2660,30 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="9">
@@ -2688,10 +2691,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="9">
@@ -2699,165 +2702,165 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="24">
         <v>5627574.54</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="24">
         <v>7067898.3099999996</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="32">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="24">
         <v>52103787.590000004</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="24">
         <v>25591347.690000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="28">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="24">
         <v>559423</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="32">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="24">
         <v>3811445.56</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="4">
@@ -2865,81 +2868,81 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="33" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="24">
         <v>7465622.4299999997</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="24">
         <v>3577732.9</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="33" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
-      <c r="F81" s="34"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="33" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="24">
         <v>65345704.020000003</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="8">
@@ -2947,10 +2950,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="8">
@@ -2958,157 +2961,156 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="24">
         <v>282640</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="24">
         <v>981912.84</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="7">
-        <f>SUM(E41:E92)</f>
         <v>448910461.96999991</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="6"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="28">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="24">
         <v>10409020</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="28">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="24">
         <v>5545602.0199999996</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="4">
@@ -3116,17 +3118,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="4">
@@ -3134,97 +3136,95 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="32">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="28">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="24">
         <v>2739753.86</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="28">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="24">
         <v>223328257.91999999</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="28">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="24">
         <v>7962807.0300000003</v>
       </c>
-      <c r="F110" s="36"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>249985440.82999998</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1">
-      <c r="A112" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="A112" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>698895902.79999995</v>
       </c>
     </row>
@@ -3238,6 +3238,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3259,265 +3260,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>49810304.760000005</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>105643116.56</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>4482220.0199999996</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12">
         <f>SUM(E11:E13)</f>
         <v>159935641.34</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="21">
         <v>19041715.329999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="21">
         <v>47224831.909999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>2259296.98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="12">
         <f>SUM(E16:E18)</f>
         <v>68525844.219999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="21">
         <v>432772117</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5">
@@ -3525,21 +3526,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="14">
@@ -3547,19 +3548,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="9">
@@ -3567,52 +3568,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="9">
@@ -3620,10 +3621,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="4">
@@ -3631,193 +3632,193 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="12">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>661233602.55999994</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="15.75">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="21">
         <v>121832945.56999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="21">
         <v>23386635.899999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="21">
         <v>2900</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="21">
         <v>3945548.41</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="21">
         <v>110826.38</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="21">
         <v>2763881</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="21">
         <v>36506200.789999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="21">
         <v>5285724.93</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="9">
@@ -3825,10 +3826,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="9">
@@ -3836,10 +3837,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="19" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="6">
@@ -3847,41 +3848,41 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="21">
         <v>332723.64</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="9">
@@ -3889,114 +3890,114 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" s="19"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="21">
         <v>9109455.5500000007</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="21">
         <v>3747253.11</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="21">
         <v>6150</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="21">
         <v>47711909.880000003</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="21">
         <v>38549376.960000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="21">
         <v>247540</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="9">
@@ -4004,50 +4005,50 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="32">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="15.75">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="19"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="21">
         <v>5400571.4900000002</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="4">
@@ -4055,92 +4056,92 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="33" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="19"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="21">
         <v>5377035.0499999998</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="21">
         <v>593711</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="33" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
-      <c r="F81" s="34"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="33" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="21">
         <v>1792097</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E84" s="21">
         <v>40760349.75</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="8">
@@ -4148,157 +4149,157 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="21">
         <v>13837836</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="21">
         <v>126290036.17</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="21">
         <v>19274843.309999999</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="19"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="7">
         <f>SUM(E41:E92)</f>
         <v>506865551.89000005</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="19"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="6"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="24"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="28">
-        <v>0</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="19"/>
-      <c r="I96" s="24"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="24">
+        <v>0</v>
+      </c>
+      <c r="F96" s="31"/>
+      <c r="G96" s="17"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="19"/>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="24"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="28">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="4">
@@ -4306,17 +4307,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="B102" s="19"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="4">
@@ -4324,81 +4325,81 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="32">
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="28">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="28">
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="28">
-        <v>0</v>
-      </c>
-      <c r="F110" s="36"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="24">
+        <v>0</v>
+      </c>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="2">
@@ -4407,12 +4408,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1">
-      <c r="A112" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="A112" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>506865551.89000005</v>
